--- a/data_suhu/september/22-09-23-Lokasi2.xlsx
+++ b/data_suhu/september/22-09-23-Lokasi2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josev\Downloads\magang_res_cloned\data_suhu\september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7E88B8-69BC-4AD3-AFDA-7F43BF95C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0DAFA6-8745-4DAD-BDD6-A4ADC2B0EDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,19 +1133,184 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,39 +1337,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,9 +1352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1224,141 +1359,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1885,7 +1885,7 @@
   <dimension ref="A1:CS96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="BG24" sqref="BG24"/>
+      <selection activeCell="AZ12" sqref="AZ12:AZ96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,12 +2015,12 @@
       <c r="C2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
       <c r="J2" s="1"/>
       <c r="M2" s="1"/>
       <c r="P2" s="1"/>
@@ -2215,29 +2215,29 @@
       </c>
     </row>
     <row r="7" spans="1:97" s="2" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="77" t="s">
+      <c r="C7" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="76"/>
+      <c r="I7" s="78"/>
       <c r="J7" s="82" t="s">
         <v>23</v>
       </c>
@@ -2270,59 +2270,59 @@
       <c r="AK7" s="83"/>
       <c r="AL7" s="83"/>
       <c r="AM7" s="84"/>
-      <c r="AN7" s="60" t="s">
+      <c r="AN7" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="60"/>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="77" t="s">
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="108"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="108"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="AX7" s="77" t="s">
+      <c r="AX7" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AY7" s="44" t="s">
+      <c r="AY7" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="93" t="s">
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="BB7" s="93" t="s">
+      <c r="BB7" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="BC7" s="48" t="s">
+      <c r="BC7" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="61" t="s">
+      <c r="BD7" s="104"/>
+      <c r="BE7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BF7" s="62"/>
-      <c r="BG7" s="91" t="s">
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="60" t="s">
         <v>67</v>
       </c>
       <c r="BH7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="BI7" s="57" t="s">
+      <c r="BI7" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BJ7" s="58"/>
-      <c r="BK7" s="59"/>
+      <c r="BJ7" s="54"/>
+      <c r="BK7" s="55"/>
       <c r="BL7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="BM7" s="99" t="s">
+      <c r="BM7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BN7" s="100"/>
+      <c r="BN7" s="57"/>
       <c r="BO7" s="11" t="s">
         <v>33</v>
       </c>
@@ -2335,23 +2335,23 @@
       <c r="BR7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BS7" s="105" t="s">
+      <c r="BS7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="BT7" s="103"/>
-      <c r="BU7" s="61" t="s">
+      <c r="BT7" s="40"/>
+      <c r="BU7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="BV7" s="62"/>
-      <c r="BW7" s="109" t="s">
+      <c r="BV7" s="43"/>
+      <c r="BW7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="BX7" s="110"/>
-      <c r="BY7" s="57" t="s">
+      <c r="BX7" s="46"/>
+      <c r="BY7" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="BZ7" s="58"/>
-      <c r="CA7" s="59"/>
+      <c r="BZ7" s="54"/>
+      <c r="CA7" s="55"/>
       <c r="CB7" s="85" t="s">
         <v>84</v>
       </c>
@@ -2376,169 +2376,169 @@
       </c>
     </row>
     <row r="8" spans="1:97" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="78"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="80" t="s">
         <v>112</v>
       </c>
       <c r="I8" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="39" t="s">
+      <c r="L8" s="75"/>
+      <c r="M8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="39" t="s">
+      <c r="O8" s="75"/>
+      <c r="P8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="41" t="s">
+      <c r="Q8" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="39" t="s">
+      <c r="R8" s="75"/>
+      <c r="S8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="41" t="s">
+      <c r="T8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="39" t="s">
+      <c r="U8" s="75"/>
+      <c r="V8" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="W8" s="41" t="s">
+      <c r="W8" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="39" t="s">
+      <c r="X8" s="75"/>
+      <c r="Y8" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="Z8" s="41" t="s">
+      <c r="Z8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="39" t="s">
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="41" t="s">
+      <c r="AC8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="39" t="s">
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="AF8" s="41" t="s">
+      <c r="AF8" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="39" t="s">
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="AI8" s="41" t="s">
+      <c r="AI8" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="39" t="s">
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="AL8" s="41" t="s">
+      <c r="AL8" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="39" t="s">
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="AO8" s="41" t="s">
+      <c r="AO8" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="39" t="s">
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="AR8" s="41" t="s">
+      <c r="AR8" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="39" t="s">
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AU8" s="95" t="s">
+      <c r="AU8" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AV8" s="95"/>
-      <c r="AW8" s="102"/>
-      <c r="AX8" s="102"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="47"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="94"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="64"/>
-      <c r="BG8" s="92"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="101"/>
+      <c r="AZ8" s="102"/>
+      <c r="BA8" s="93"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="109"/>
+      <c r="BF8" s="110"/>
+      <c r="BG8" s="91"/>
       <c r="BH8" s="18" t="s">
         <v>50</v>
       </c>
       <c r="BI8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BJ8" s="53" t="s">
+      <c r="BJ8" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="43" t="s">
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="BM8" s="53" t="s">
+      <c r="BM8" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="BN8" s="54"/>
-      <c r="BO8" s="43" t="s">
+      <c r="BN8" s="59"/>
+      <c r="BO8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="BP8" s="68" t="s">
+      <c r="BP8" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="BQ8" s="43" t="s">
+      <c r="BQ8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="BR8" s="43" t="s">
+      <c r="BR8" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="BS8" s="43" t="s">
+      <c r="BS8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BT8" s="43"/>
-      <c r="BU8" s="56" t="s">
+      <c r="BT8" s="41"/>
+      <c r="BU8" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="BV8" s="56"/>
-      <c r="BW8" s="43" t="s">
+      <c r="BV8" s="44"/>
+      <c r="BW8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BX8" s="43"/>
-      <c r="BY8" s="56" t="s">
+      <c r="BX8" s="41"/>
+      <c r="BY8" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="BZ8" s="111" t="s">
+      <c r="BZ8" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="CA8" s="112"/>
+      <c r="CA8" s="48"/>
       <c r="CB8" s="88" t="s">
         <v>117</v>
       </c>
@@ -2569,241 +2569,241 @@
       </c>
     </row>
     <row r="9" spans="1:97" s="2" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="79"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="81"/>
       <c r="I9" s="81"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="40"/>
+      <c r="M9" s="69"/>
       <c r="N9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="O9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="40"/>
+      <c r="P9" s="69"/>
       <c r="Q9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="S9" s="40"/>
+      <c r="S9" s="69"/>
       <c r="T9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="U9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="40"/>
+      <c r="V9" s="69"/>
       <c r="W9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="X9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="Y9" s="40"/>
+      <c r="Y9" s="69"/>
       <c r="Z9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AA9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AB9" s="40"/>
+      <c r="AB9" s="69"/>
       <c r="AC9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AD9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AE9" s="40"/>
+      <c r="AE9" s="69"/>
       <c r="AF9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AG9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AH9" s="40"/>
+      <c r="AH9" s="69"/>
       <c r="AI9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AJ9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AK9" s="40"/>
+      <c r="AK9" s="69"/>
       <c r="AL9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AM9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AN9" s="40"/>
+      <c r="AN9" s="69"/>
       <c r="AO9" s="29" t="s">
         <v>110</v>
       </c>
       <c r="AP9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AQ9" s="40"/>
+      <c r="AQ9" s="69"/>
       <c r="AR9" s="29" t="s">
         <v>110</v>
       </c>
       <c r="AS9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AT9" s="40"/>
+      <c r="AT9" s="69"/>
       <c r="AU9" s="29" t="s">
         <v>110</v>
       </c>
       <c r="AV9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AW9" s="96" t="s">
+      <c r="AW9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AX9" s="98" t="s">
+      <c r="AX9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AY9" s="52" t="s">
+      <c r="AY9" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AZ9" s="52" t="s">
+      <c r="AZ9" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BA9" s="96" t="s">
+      <c r="BA9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="BB9" s="98" t="s">
+      <c r="BB9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="BC9" s="52" t="s">
+      <c r="BC9" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="BD9" s="52" t="s">
+      <c r="BD9" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BE9" s="55" t="s">
+      <c r="BE9" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="65" t="s">
+      <c r="BF9" s="107"/>
+      <c r="BG9" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="BH9" s="65" t="s">
+      <c r="BH9" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="BI9" s="67" t="s">
+      <c r="BI9" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="BJ9" s="55" t="s">
+      <c r="BJ9" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="BK9" s="55" t="s">
+      <c r="BK9" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="71" t="s">
+      <c r="BL9" s="41"/>
+      <c r="BM9" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="BN9" s="72"/>
-      <c r="BO9" s="43"/>
-      <c r="BP9" s="69"/>
-      <c r="BQ9" s="43"/>
-      <c r="BR9" s="43"/>
-      <c r="BS9" s="43" t="s">
+      <c r="BN9" s="98"/>
+      <c r="BO9" s="41"/>
+      <c r="BP9" s="114"/>
+      <c r="BQ9" s="41"/>
+      <c r="BR9" s="41"/>
+      <c r="BS9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="BT9" s="43" t="s">
+      <c r="BT9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BU9" s="56" t="s">
+      <c r="BU9" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="BV9" s="56" t="s">
+      <c r="BV9" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="BW9" s="43" t="s">
+      <c r="BW9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="BX9" s="43" t="s">
+      <c r="BX9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BY9" s="56"/>
-      <c r="BZ9" s="113"/>
-      <c r="CA9" s="114"/>
-      <c r="CB9" s="43" t="s">
+      <c r="BY9" s="44"/>
+      <c r="BZ9" s="49"/>
+      <c r="CA9" s="50"/>
+      <c r="CB9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="CC9" s="43" t="s">
+      <c r="CC9" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="CD9" s="43" t="s">
+      <c r="CD9" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="CE9" s="43" t="s">
+      <c r="CE9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="CF9" s="43" t="s">
+      <c r="CF9" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="CG9" s="43" t="s">
+      <c r="CG9" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="CH9" s="43" t="s">
+      <c r="CH9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="CI9" s="43" t="s">
+      <c r="CI9" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="CJ9" s="43" t="s">
+      <c r="CJ9" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="CK9" s="70" t="s">
+      <c r="CK9" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="CL9" s="70" t="s">
+      <c r="CL9" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="CM9" s="43" t="s">
+      <c r="CM9" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="CN9" s="43" t="s">
+      <c r="CN9" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="CO9" s="43" t="s">
+      <c r="CO9" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="CP9" s="43" t="s">
+      <c r="CP9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="CQ9" s="70" t="s">
+      <c r="CQ9" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="CR9" s="70" t="s">
+      <c r="CR9" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="CS9" s="70" t="s">
+      <c r="CS9" s="95" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:97" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="104"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="32"/>
       <c r="H10" s="27">
         <f>I10*0.293</f>
@@ -2907,59 +2907,59 @@
         <f>AU10*3.412</f>
         <v>170.6</v>
       </c>
-      <c r="AW10" s="97"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="40"/>
-      <c r="AZ10" s="40"/>
-      <c r="BA10" s="97"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="40"/>
-      <c r="BD10" s="40"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="69"/>
       <c r="BE10" s="10" t="s">
         <v>112</v>
       </c>
       <c r="BF10" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="55"/>
-      <c r="BJ10" s="56"/>
-      <c r="BK10" s="56"/>
-      <c r="BL10" s="43"/>
-      <c r="BM10" s="73"/>
-      <c r="BN10" s="74"/>
-      <c r="BO10" s="43"/>
-      <c r="BP10" s="55"/>
-      <c r="BQ10" s="43"/>
-      <c r="BR10" s="43"/>
-      <c r="BS10" s="43"/>
-      <c r="BT10" s="43"/>
-      <c r="BU10" s="56"/>
-      <c r="BV10" s="56"/>
-      <c r="BW10" s="43"/>
-      <c r="BX10" s="43"/>
-      <c r="BY10" s="56"/>
-      <c r="BZ10" s="73"/>
-      <c r="CA10" s="74"/>
-      <c r="CB10" s="43"/>
-      <c r="CC10" s="43"/>
-      <c r="CD10" s="43"/>
-      <c r="CE10" s="43"/>
-      <c r="CF10" s="43"/>
-      <c r="CG10" s="43"/>
-      <c r="CH10" s="43"/>
-      <c r="CI10" s="43"/>
-      <c r="CJ10" s="43"/>
-      <c r="CK10" s="66"/>
-      <c r="CL10" s="66"/>
-      <c r="CM10" s="43"/>
-      <c r="CN10" s="43"/>
-      <c r="CO10" s="43"/>
-      <c r="CP10" s="43"/>
-      <c r="CQ10" s="66"/>
-      <c r="CR10" s="66"/>
-      <c r="CS10" s="66"/>
+      <c r="BG10" s="96"/>
+      <c r="BH10" s="96"/>
+      <c r="BI10" s="107"/>
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="41"/>
+      <c r="BM10" s="51"/>
+      <c r="BN10" s="52"/>
+      <c r="BO10" s="41"/>
+      <c r="BP10" s="107"/>
+      <c r="BQ10" s="41"/>
+      <c r="BR10" s="41"/>
+      <c r="BS10" s="41"/>
+      <c r="BT10" s="41"/>
+      <c r="BU10" s="44"/>
+      <c r="BV10" s="44"/>
+      <c r="BW10" s="41"/>
+      <c r="BX10" s="41"/>
+      <c r="BY10" s="44"/>
+      <c r="BZ10" s="51"/>
+      <c r="CA10" s="52"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="41"/>
+      <c r="CD10" s="41"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="41"/>
+      <c r="CJ10" s="41"/>
+      <c r="CK10" s="96"/>
+      <c r="CL10" s="96"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="96"/>
+      <c r="CR10" s="96"/>
+      <c r="CS10" s="96"/>
     </row>
     <row r="11" spans="1:97" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -3428,17 +3428,17 @@
         <v>0</v>
       </c>
       <c r="AW12" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX12" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY12" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ12" s="31">
         <f>AY12/100</f>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BA12" s="31">
         <v>29</v>
@@ -3494,11 +3494,11 @@
       </c>
       <c r="BO12" s="1">
         <f>AZ12</f>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BP12" s="25">
         <f>((BN12/BL12)^2)*BO12</f>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BQ12" s="3">
         <v>5</v>
@@ -3789,17 +3789,17 @@
         <v>0</v>
       </c>
       <c r="AW13" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX13" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY13" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ13" s="31">
         <f t="shared" ref="AZ13:AZ76" si="32">AY13/100</f>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BA13" s="31">
         <v>29</v>
@@ -3855,11 +3855,11 @@
       </c>
       <c r="BO13" s="1">
         <f t="shared" ref="BO13:BO16" si="40">AZ13</f>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BP13" s="25">
         <f>((BN13/BL13)^2)*BO13</f>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BQ13" s="3">
         <v>5</v>
@@ -4150,17 +4150,17 @@
         <v>0</v>
       </c>
       <c r="AW14" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX14" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY14" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ14" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BA14" s="31">
         <v>29</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="BG14" s="19">
         <f>BE14/(4840*ABS((BB14-AX14)))</f>
-        <v>4.1307946068345628E-3</v>
+        <v>3.325914134730179E-3</v>
       </c>
       <c r="BH14" s="19">
         <f t="shared" si="36"/>
@@ -4197,37 +4197,37 @@
       </c>
       <c r="BJ14" s="25">
         <f t="shared" si="1"/>
-        <v>93.304130794606834</v>
+        <v>93.303325914134732</v>
       </c>
       <c r="BK14" s="25">
         <f t="shared" si="37"/>
-        <v>158.52465126134496</v>
+        <v>158.52328376137405</v>
       </c>
       <c r="BL14" s="1">
         <v>750</v>
       </c>
       <c r="BM14" s="1">
         <f t="shared" si="38"/>
-        <v>954.68073800757338</v>
+        <v>954.6725025320743</v>
       </c>
       <c r="BN14" s="25">
         <f t="shared" si="39"/>
-        <v>954.68073800757338</v>
+        <v>954.6725025320743</v>
       </c>
       <c r="BO14" s="1">
         <f t="shared" si="40"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BP14" s="25">
         <f>((BN14/BL14)^2)*BO14</f>
-        <v>16.299022299022479</v>
+        <v>16.348807313180671</v>
       </c>
       <c r="BQ14" s="3">
         <v>5</v>
       </c>
       <c r="BR14" s="6">
         <f>((BN14/BL14)^3)*BQ14</f>
-        <v>10.31242242649931</v>
+        <v>10.312155550989324</v>
       </c>
       <c r="BS14" s="6">
         <f>BQ14*745.7</f>
@@ -4239,11 +4239,11 @@
       </c>
       <c r="BU14" s="6">
         <f>BR14*745.7</f>
-        <v>7689.9734034405365</v>
+        <v>7689.7743943727392</v>
       </c>
       <c r="BV14" s="15">
         <f t="shared" si="42"/>
-        <v>7.6899734034405363</v>
+        <v>7.6897743943727388</v>
       </c>
       <c r="BW14" s="6">
         <f>BW13</f>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="BZ14" s="3">
         <f>100-((BH14/BJ14)*100)</f>
-        <v>21.439705428093561</v>
+        <v>21.439027728275633</v>
       </c>
       <c r="CA14" s="14">
         <f t="shared" si="44"/>
@@ -4511,17 +4511,17 @@
         <v>0</v>
       </c>
       <c r="AW15" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX15" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY15" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ15" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BA15" s="31">
         <v>29</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="BG15" s="19">
         <f>BE15/(4840*ABS((BB15-AX15)))</f>
-        <v>6.0345521212887519E-3</v>
+        <v>4.8587267359536529E-3</v>
       </c>
       <c r="BH15" s="19">
         <f t="shared" si="36"/>
@@ -4558,37 +4558,37 @@
       </c>
       <c r="BJ15" s="25">
         <f t="shared" si="1"/>
-        <v>73.306034552121289</v>
+        <v>73.304858726735944</v>
       </c>
       <c r="BK15" s="25">
         <f t="shared" si="37"/>
-        <v>124.54768576439959</v>
+        <v>124.54568802531163</v>
       </c>
       <c r="BL15" s="1">
         <v>750</v>
       </c>
       <c r="BM15" s="1">
         <f t="shared" si="38"/>
-        <v>750.0617450762752</v>
+        <v>750.04971412076338</v>
       </c>
       <c r="BN15" s="25">
         <f t="shared" si="39"/>
-        <v>750.0617450762752</v>
+        <v>750.04971412076338</v>
       </c>
       <c r="BO15" s="1">
         <f t="shared" si="40"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BP15" s="25">
         <f>((BN15/BL15)^2)*BO15</f>
-        <v>10.060956367500953</v>
+        <v>10.091537712124188</v>
       </c>
       <c r="BQ15" s="3">
         <v>5</v>
       </c>
       <c r="BR15" s="6">
         <f>((BN15/BL15)^3)*BQ15</f>
-        <v>5.001235003193746</v>
+        <v>5.0009943483232249</v>
       </c>
       <c r="BS15" s="6">
         <f>BQ15*745.7</f>
@@ -4600,11 +4600,11 @@
       </c>
       <c r="BU15" s="6">
         <f>BR15*745.7</f>
-        <v>3729.4209418815767</v>
+        <v>3729.2414855446291</v>
       </c>
       <c r="BV15" s="15">
         <f t="shared" si="42"/>
-        <v>3.7294209418815769</v>
+        <v>3.729241485544629</v>
       </c>
       <c r="BW15" s="6">
         <f>BW14</f>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="BZ15" s="3">
         <f>100-((BH15/BJ15)*100)</f>
-        <v>8.2319991227990386E-3</v>
+        <v>6.6281100875755783E-3</v>
       </c>
       <c r="CA15" s="14">
         <f t="shared" si="44"/>
@@ -4872,17 +4872,17 @@
         <v>170.6</v>
       </c>
       <c r="AW16" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX16" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY16" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ16" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BA16" s="31">
         <v>29</v>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="BG16" s="19">
         <f>BE16/(4840*ABS((BB16-AX16)))</f>
-        <v>5.5532247497097681E-3</v>
+        <v>4.4711854367763971E-3</v>
       </c>
       <c r="BH16" s="19">
         <f t="shared" si="36"/>
@@ -4919,37 +4919,37 @@
       </c>
       <c r="BJ16" s="25">
         <f t="shared" si="1"/>
-        <v>93.305553224749701</v>
+        <v>93.304471185436768</v>
       </c>
       <c r="BK16" s="25">
         <f t="shared" si="37"/>
-        <v>158.52706798438197</v>
+        <v>158.52522958876892</v>
       </c>
       <c r="BL16" s="1">
         <v>750</v>
       </c>
       <c r="BM16" s="1">
         <f t="shared" ref="BM16" si="52">(BJ16/BH16)*BL16</f>
-        <v>954.6952922041238</v>
+        <v>954.68422086053988</v>
       </c>
       <c r="BN16" s="25">
         <f t="shared" si="39"/>
-        <v>954.6952922041238</v>
+        <v>954.68422086053988</v>
       </c>
       <c r="BO16" s="1">
         <f t="shared" si="40"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BP16" s="25">
         <f>((BN16/BL16)^2)*BO16</f>
-        <v>16.299519263029168</v>
+        <v>16.34920866939321</v>
       </c>
       <c r="BQ16" s="3">
         <v>5</v>
       </c>
       <c r="BR16" s="6">
         <f>((BN16/BL16)^3)*BQ16</f>
-        <v>10.312894075203626</v>
+        <v>10.312535291818492</v>
       </c>
       <c r="BS16" s="6">
         <f>BQ16*745.7</f>
@@ -4961,11 +4961,11 @@
       </c>
       <c r="BU16" s="6">
         <f>BR16*745.7</f>
-        <v>7690.3251118793451</v>
+        <v>7690.0575671090501</v>
       </c>
       <c r="BV16" s="15">
         <f>BU16/1000</f>
-        <v>7.6903251118793454</v>
+        <v>7.6900575671090499</v>
       </c>
       <c r="BW16" s="6">
         <f>BW15</f>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="BZ16" s="3">
         <f>100-((BH16/BJ16)*100)</f>
-        <v>21.440903068825207</v>
+        <v>21.439992029620043</v>
       </c>
       <c r="CA16" s="14">
         <f t="shared" si="44"/>
@@ -5123,17 +5123,17 @@
         <v>13.648</v>
       </c>
       <c r="AW17" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX17" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY17" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ17" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BE17" s="16"/>
       <c r="BF17" s="16"/>
@@ -5198,17 +5198,17 @@
         <v>1</v>
       </c>
       <c r="AW18" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX18" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY18" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ18" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BE18" s="16"/>
       <c r="BF18" s="16"/>
@@ -5261,17 +5261,17 @@
         <v>1</v>
       </c>
       <c r="AW19" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX19" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY19" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ19" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BE19" s="16"/>
       <c r="BF19" s="16"/>
@@ -5324,17 +5324,17 @@
         <v>1</v>
       </c>
       <c r="AW20" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX20" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY20" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ20" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BE20" s="16"/>
       <c r="BF20" s="16"/>
@@ -5387,17 +5387,17 @@
         <v>1</v>
       </c>
       <c r="AW21" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX21" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY21" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ21" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BE21" s="16"/>
       <c r="BF21" s="16"/>
@@ -5450,17 +5450,17 @@
         <v>1</v>
       </c>
       <c r="AW22" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX22" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY22" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ22" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BE22" s="16"/>
       <c r="BF22" s="16"/>
@@ -5513,17 +5513,17 @@
         <v>1</v>
       </c>
       <c r="AW23" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX23" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY23" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ23" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
       <c r="BE23" s="16"/>
       <c r="BF23" s="16"/>
@@ -5570,17 +5570,17 @@
         <v>0.375</v>
       </c>
       <c r="AW24" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX24" s="31">
-        <v>48.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY24" s="31">
-        <v>1005.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ24" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:97" x14ac:dyDescent="0.25">
@@ -5597,17 +5597,17 @@
         <v>0.37847222222222299</v>
       </c>
       <c r="AW25" s="31">
-        <v>28.09</v>
+        <v>27.86</v>
       </c>
       <c r="AX25" s="31">
-        <v>47.81</v>
+        <v>49.93</v>
       </c>
       <c r="AY25" s="31">
-        <v>1006</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ25" s="31">
         <f t="shared" si="32"/>
-        <v>10.06</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="26" spans="1:97" x14ac:dyDescent="0.25">
@@ -5624,17 +5624,17 @@
         <v>0.38194444444444497</v>
       </c>
       <c r="AW26" s="31">
-        <v>28.18</v>
+        <v>27.86</v>
       </c>
       <c r="AX26" s="31">
-        <v>47.63</v>
+        <v>49.93</v>
       </c>
       <c r="AY26" s="31">
-        <v>1006.07</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ26" s="31">
         <f t="shared" si="32"/>
-        <v>10.060700000000001</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="27" spans="1:97" x14ac:dyDescent="0.25">
@@ -5651,17 +5651,17 @@
         <v>0.38541666666666702</v>
       </c>
       <c r="AW27" s="31">
-        <v>28.23</v>
+        <v>27.86</v>
       </c>
       <c r="AX27" s="31">
-        <v>47.6</v>
+        <v>49.93</v>
       </c>
       <c r="AY27" s="31">
-        <v>1006.12</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ27" s="31">
         <f t="shared" si="32"/>
-        <v>10.061199999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="28" spans="1:97" x14ac:dyDescent="0.25">
@@ -5678,17 +5678,17 @@
         <v>0.38888888888889001</v>
       </c>
       <c r="AW28" s="31">
-        <v>28.21</v>
+        <v>27.86</v>
       </c>
       <c r="AX28" s="31">
-        <v>47.48</v>
+        <v>49.93</v>
       </c>
       <c r="AY28" s="31">
-        <v>1006.18</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ28" s="31">
         <f t="shared" si="32"/>
-        <v>10.0618</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:97" x14ac:dyDescent="0.25">
@@ -5705,17 +5705,17 @@
         <v>0.39236111111111199</v>
       </c>
       <c r="AW29" s="31">
-        <v>28.17</v>
+        <v>27.86</v>
       </c>
       <c r="AX29" s="31">
-        <v>47.43</v>
+        <v>49.93</v>
       </c>
       <c r="AY29" s="31">
-        <v>1006.18</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ29" s="31">
         <f t="shared" si="32"/>
-        <v>10.0618</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="30" spans="1:97" x14ac:dyDescent="0.25">
@@ -5732,17 +5732,17 @@
         <v>0.39583333333333398</v>
       </c>
       <c r="AW30" s="31">
-        <v>28.13</v>
+        <v>27.86</v>
       </c>
       <c r="AX30" s="31">
-        <v>47.43</v>
+        <v>49.93</v>
       </c>
       <c r="AY30" s="31">
-        <v>1006.23</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ30" s="31">
         <f t="shared" si="32"/>
-        <v>10.0623</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="31" spans="1:97" x14ac:dyDescent="0.25">
@@ -5759,17 +5759,17 @@
         <v>0.39930555555555602</v>
       </c>
       <c r="AW31" s="31">
-        <v>28.08</v>
+        <v>27.86</v>
       </c>
       <c r="AX31" s="31">
-        <v>47.66</v>
+        <v>49.93</v>
       </c>
       <c r="AY31" s="31">
-        <v>1006.29</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ31" s="31">
         <f t="shared" si="32"/>
-        <v>10.062899999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="32" spans="1:97" x14ac:dyDescent="0.25">
@@ -5786,17 +5786,17 @@
         <v>0.40277777777777901</v>
       </c>
       <c r="AW32" s="31">
-        <v>28.04</v>
+        <v>27.86</v>
       </c>
       <c r="AX32" s="31">
-        <v>47.51</v>
+        <v>49.93</v>
       </c>
       <c r="AY32" s="31">
-        <v>1006.33</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ32" s="31">
         <f t="shared" si="32"/>
-        <v>10.0633</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
@@ -5813,17 +5813,17 @@
         <v>0.406250000000001</v>
       </c>
       <c r="AW33" s="31">
-        <v>27.97</v>
+        <v>27.86</v>
       </c>
       <c r="AX33" s="31">
-        <v>47.63</v>
+        <v>49.93</v>
       </c>
       <c r="AY33" s="31">
-        <v>1006.43</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ33" s="31">
         <f t="shared" si="32"/>
-        <v>10.064299999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
@@ -5840,17 +5840,17 @@
         <v>0.40972222222222299</v>
       </c>
       <c r="AW34" s="31">
-        <v>27.91</v>
+        <v>27.86</v>
       </c>
       <c r="AX34" s="31">
-        <v>47.69</v>
+        <v>49.93</v>
       </c>
       <c r="AY34" s="31">
-        <v>1006.49</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ34" s="31">
         <f t="shared" si="32"/>
-        <v>10.0649</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
@@ -5867,17 +5867,17 @@
         <v>0.41319444444444497</v>
       </c>
       <c r="AW35" s="31">
-        <v>27.94</v>
+        <v>27.86</v>
       </c>
       <c r="AX35" s="31">
-        <v>47.71</v>
+        <v>49.93</v>
       </c>
       <c r="AY35" s="31">
-        <v>1006.57</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ35" s="31">
         <f t="shared" si="32"/>
-        <v>10.0657</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
@@ -5894,17 +5894,17 @@
         <v>0.41666666666666802</v>
       </c>
       <c r="AW36" s="31">
-        <v>28.01</v>
+        <v>27.86</v>
       </c>
       <c r="AX36" s="31">
-        <v>47.6</v>
+        <v>49.93</v>
       </c>
       <c r="AY36" s="31">
-        <v>1006.66</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ36" s="31">
         <f t="shared" si="32"/>
-        <v>10.066599999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
@@ -5921,17 +5921,17 @@
         <v>0.42013888888889001</v>
       </c>
       <c r="AW37" s="31">
-        <v>28.09</v>
+        <v>27.86</v>
       </c>
       <c r="AX37" s="31">
-        <v>47.46</v>
+        <v>49.93</v>
       </c>
       <c r="AY37" s="31">
-        <v>1006.66</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ37" s="31">
         <f t="shared" si="32"/>
-        <v>10.066599999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
@@ -5948,17 +5948,17 @@
         <v>0.42361111111111199</v>
       </c>
       <c r="AW38" s="31">
-        <v>28.13</v>
+        <v>27.86</v>
       </c>
       <c r="AX38" s="31">
-        <v>47.32</v>
+        <v>49.93</v>
       </c>
       <c r="AY38" s="31">
-        <v>1006.71</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ38" s="31">
         <f t="shared" si="32"/>
-        <v>10.0671</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
@@ -5975,17 +5975,17 @@
         <v>0.42708333333333398</v>
       </c>
       <c r="AW39" s="31">
-        <v>28.07</v>
+        <v>27.86</v>
       </c>
       <c r="AX39" s="31">
-        <v>47.32</v>
+        <v>49.93</v>
       </c>
       <c r="AY39" s="31">
-        <v>1006.72</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ39" s="31">
         <f t="shared" si="32"/>
-        <v>10.0672</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
@@ -6002,17 +6002,17 @@
         <v>0.43055555555555702</v>
       </c>
       <c r="AW40" s="31">
-        <v>27.99</v>
+        <v>27.86</v>
       </c>
       <c r="AX40" s="31">
-        <v>47.52</v>
+        <v>49.93</v>
       </c>
       <c r="AY40" s="31">
-        <v>1006.78</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ40" s="31">
         <f t="shared" si="32"/>
-        <v>10.0678</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
@@ -6029,17 +6029,17 @@
         <v>0.43402777777777901</v>
       </c>
       <c r="AW41" s="31">
-        <v>28.02</v>
+        <v>27.86</v>
       </c>
       <c r="AX41" s="31">
-        <v>47.56</v>
+        <v>49.93</v>
       </c>
       <c r="AY41" s="31">
-        <v>1006.8</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ41" s="31">
         <f t="shared" si="32"/>
-        <v>10.068</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
@@ -6056,17 +6056,17 @@
         <v>0.437500000000001</v>
       </c>
       <c r="AW42" s="31">
-        <v>28.08</v>
+        <v>27.86</v>
       </c>
       <c r="AX42" s="31">
-        <v>47.47</v>
+        <v>49.93</v>
       </c>
       <c r="AY42" s="31">
-        <v>1006.9</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ42" s="31">
         <f t="shared" si="32"/>
-        <v>10.068999999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
@@ -6083,17 +6083,17 @@
         <v>0.44097222222222299</v>
       </c>
       <c r="AW43" s="31">
-        <v>28.13</v>
+        <v>27.86</v>
       </c>
       <c r="AX43" s="31">
-        <v>47.36</v>
+        <v>49.93</v>
       </c>
       <c r="AY43" s="31">
-        <v>1007.03</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ43" s="31">
         <f t="shared" si="32"/>
-        <v>10.0703</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
@@ -6110,17 +6110,17 @@
         <v>0.44444444444444497</v>
       </c>
       <c r="AW44" s="31">
-        <v>28.07</v>
+        <v>27.86</v>
       </c>
       <c r="AX44" s="31">
-        <v>47.36</v>
+        <v>49.93</v>
       </c>
       <c r="AY44" s="31">
-        <v>1007.1</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ44" s="31">
         <f t="shared" si="32"/>
-        <v>10.071</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
@@ -6137,17 +6137,17 @@
         <v>0.44791666666666802</v>
       </c>
       <c r="AW45" s="31">
-        <v>27.98</v>
+        <v>27.86</v>
       </c>
       <c r="AX45" s="31">
-        <v>47.55</v>
+        <v>49.93</v>
       </c>
       <c r="AY45" s="31">
-        <v>1007.18</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ45" s="31">
         <f t="shared" si="32"/>
-        <v>10.0718</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
@@ -6164,17 +6164,17 @@
         <v>0.45138888888889001</v>
       </c>
       <c r="AW46" s="31">
-        <v>27.88</v>
+        <v>27.86</v>
       </c>
       <c r="AX46" s="31">
-        <v>47.76</v>
+        <v>49.93</v>
       </c>
       <c r="AY46" s="31">
-        <v>1007.24</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ46" s="31">
         <f t="shared" si="32"/>
-        <v>10.0724</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
@@ -6191,17 +6191,17 @@
         <v>0.45486111111111199</v>
       </c>
       <c r="AW47" s="31">
-        <v>27.82</v>
+        <v>27.86</v>
       </c>
       <c r="AX47" s="31">
-        <v>47.92</v>
+        <v>49.93</v>
       </c>
       <c r="AY47" s="31">
-        <v>1007.29</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ47" s="31">
         <f t="shared" si="32"/>
-        <v>10.072899999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
@@ -6218,17 +6218,17 @@
         <v>0.45833333333333498</v>
       </c>
       <c r="AW48" s="31">
-        <v>27.77</v>
+        <v>27.86</v>
       </c>
       <c r="AX48" s="31">
-        <v>48.08</v>
+        <v>49.93</v>
       </c>
       <c r="AY48" s="31">
-        <v>1007.41</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ48" s="31">
         <f t="shared" si="32"/>
-        <v>10.0741</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
@@ -6245,17 +6245,17 @@
         <v>0.46180555555555702</v>
       </c>
       <c r="AW49" s="31">
-        <v>27.73</v>
+        <v>27.86</v>
       </c>
       <c r="AX49" s="31">
-        <v>48.23</v>
+        <v>49.93</v>
       </c>
       <c r="AY49" s="31">
-        <v>1007.45</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ49" s="31">
         <f t="shared" si="32"/>
-        <v>10.0745</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
@@ -6272,17 +6272,17 @@
         <v>0.46527777777777901</v>
       </c>
       <c r="AW50" s="31">
-        <v>27.7</v>
+        <v>27.86</v>
       </c>
       <c r="AX50" s="31">
-        <v>48.37</v>
+        <v>49.93</v>
       </c>
       <c r="AY50" s="31">
-        <v>1007.47</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ50" s="31">
         <f t="shared" si="32"/>
-        <v>10.0747</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
@@ -6299,17 +6299,17 @@
         <v>0.468750000000001</v>
       </c>
       <c r="AW51" s="31">
-        <v>27.68</v>
+        <v>27.86</v>
       </c>
       <c r="AX51" s="31">
-        <v>48.45</v>
+        <v>49.93</v>
       </c>
       <c r="AY51" s="31">
-        <v>1007.55</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ51" s="31">
         <f t="shared" si="32"/>
-        <v>10.0755</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
@@ -6326,17 +6326,17 @@
         <v>0.47222222222222399</v>
       </c>
       <c r="AW52" s="31">
-        <v>27.68</v>
+        <v>27.86</v>
       </c>
       <c r="AX52" s="31">
-        <v>48.55</v>
+        <v>49.93</v>
       </c>
       <c r="AY52" s="31">
-        <v>1007.66</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ52" s="31">
         <f t="shared" si="32"/>
-        <v>10.076599999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
@@ -6353,17 +6353,17 @@
         <v>0.47569444444444597</v>
       </c>
       <c r="AW53" s="31">
-        <v>27.68</v>
+        <v>27.86</v>
       </c>
       <c r="AX53" s="31">
-        <v>48.61</v>
+        <v>49.93</v>
       </c>
       <c r="AY53" s="31">
-        <v>1007.77</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ53" s="31">
         <f t="shared" si="32"/>
-        <v>10.0777</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
@@ -6380,17 +6380,17 @@
         <v>0.47916666666666802</v>
       </c>
       <c r="AW54" s="31">
-        <v>27.68</v>
+        <v>27.86</v>
       </c>
       <c r="AX54" s="31">
-        <v>48.66</v>
+        <v>49.93</v>
       </c>
       <c r="AY54" s="31">
-        <v>1007.87</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ54" s="31">
         <f t="shared" si="32"/>
-        <v>10.0787</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
@@ -6407,17 +6407,17 @@
         <v>0.48263888888889001</v>
       </c>
       <c r="AW55" s="31">
-        <v>27.68</v>
+        <v>27.86</v>
       </c>
       <c r="AX55" s="31">
-        <v>48.7</v>
+        <v>49.93</v>
       </c>
       <c r="AY55" s="31">
-        <v>1007.95</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ55" s="31">
         <f t="shared" si="32"/>
-        <v>10.079500000000001</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
@@ -6434,17 +6434,17 @@
         <v>0.48611111111111299</v>
       </c>
       <c r="AW56" s="31">
-        <v>27.67</v>
+        <v>27.86</v>
       </c>
       <c r="AX56" s="31">
-        <v>48.74</v>
+        <v>49.93</v>
       </c>
       <c r="AY56" s="31">
-        <v>1007.98</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ56" s="31">
         <f t="shared" si="32"/>
-        <v>10.079800000000001</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
@@ -6461,17 +6461,17 @@
         <v>0.48958333333333498</v>
       </c>
       <c r="AW57" s="31">
-        <v>27.68</v>
+        <v>27.86</v>
       </c>
       <c r="AX57" s="31">
-        <v>48.75</v>
+        <v>49.93</v>
       </c>
       <c r="AY57" s="31">
-        <v>1008.02</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ57" s="31">
         <f t="shared" si="32"/>
-        <v>10.0802</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.25">
@@ -6488,17 +6488,17 @@
         <v>0.49305555555555702</v>
       </c>
       <c r="AW58" s="31">
-        <v>27.68</v>
+        <v>27.86</v>
       </c>
       <c r="AX58" s="31">
-        <v>48.82</v>
+        <v>49.93</v>
       </c>
       <c r="AY58" s="31">
-        <v>1008.09</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ58" s="31">
         <f t="shared" si="32"/>
-        <v>10.0809</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.25">
@@ -6515,17 +6515,17 @@
         <v>0.49652777777777901</v>
       </c>
       <c r="AW59" s="31">
-        <v>27.68</v>
+        <v>27.86</v>
       </c>
       <c r="AX59" s="31">
-        <v>48.87</v>
+        <v>49.93</v>
       </c>
       <c r="AY59" s="31">
-        <v>1008.21</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ59" s="31">
         <f t="shared" si="32"/>
-        <v>10.082100000000001</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.25">
@@ -6542,17 +6542,17 @@
         <v>0.500000000000002</v>
       </c>
       <c r="AW60" s="31">
-        <v>27.69</v>
+        <v>27.86</v>
       </c>
       <c r="AX60" s="31">
-        <v>48.93</v>
+        <v>49.93</v>
       </c>
       <c r="AY60" s="31">
-        <v>1008.3</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ60" s="31">
         <f t="shared" si="32"/>
-        <v>10.083</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.25">
@@ -6569,17 +6569,17 @@
         <v>0.50347222222222399</v>
       </c>
       <c r="AW61" s="31">
-        <v>27.7</v>
+        <v>27.86</v>
       </c>
       <c r="AX61" s="31">
-        <v>48.96</v>
+        <v>49.93</v>
       </c>
       <c r="AY61" s="31">
-        <v>1008.39</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ61" s="31">
         <f t="shared" si="32"/>
-        <v>10.0839</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.25">
@@ -6596,17 +6596,17 @@
         <v>0.50694444444444597</v>
       </c>
       <c r="AW62" s="31">
-        <v>27.7</v>
+        <v>27.86</v>
       </c>
       <c r="AX62" s="31">
-        <v>49.19</v>
+        <v>49.93</v>
       </c>
       <c r="AY62" s="31">
-        <v>1008.42</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ62" s="31">
         <f t="shared" si="32"/>
-        <v>10.084199999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.25">
@@ -6623,17 +6623,17 @@
         <v>0.51041666666666896</v>
       </c>
       <c r="AW63" s="31">
-        <v>27.7</v>
+        <v>27.86</v>
       </c>
       <c r="AX63" s="31">
-        <v>49.26</v>
+        <v>49.93</v>
       </c>
       <c r="AY63" s="31">
-        <v>1008.48</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ63" s="31">
         <f t="shared" si="32"/>
-        <v>10.0848</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
@@ -6650,17 +6650,17 @@
         <v>0.51388888888889095</v>
       </c>
       <c r="AW64" s="31">
-        <v>27.71</v>
+        <v>27.86</v>
       </c>
       <c r="AX64" s="31">
-        <v>49.3</v>
+        <v>49.93</v>
       </c>
       <c r="AY64" s="31">
-        <v>1008.55</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ64" s="31">
         <f t="shared" si="32"/>
-        <v>10.0855</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.25">
@@ -6677,17 +6677,17 @@
         <v>0.51736111111111305</v>
       </c>
       <c r="AW65" s="31">
-        <v>27.71</v>
+        <v>27.86</v>
       </c>
       <c r="AX65" s="31">
-        <v>49.37</v>
+        <v>49.93</v>
       </c>
       <c r="AY65" s="31">
-        <v>1008.68</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ65" s="31">
         <f t="shared" si="32"/>
-        <v>10.0868</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.25">
@@ -6704,17 +6704,17 @@
         <v>0.52083333333333504</v>
       </c>
       <c r="AW66" s="31">
-        <v>27.71</v>
+        <v>27.86</v>
       </c>
       <c r="AX66" s="31">
-        <v>49.66</v>
+        <v>49.93</v>
       </c>
       <c r="AY66" s="31">
-        <v>1008.77</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ66" s="31">
         <f t="shared" si="32"/>
-        <v>10.0877</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.25">
@@ -6731,17 +6731,17 @@
         <v>0.52430555555555802</v>
       </c>
       <c r="AW67" s="31">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
       <c r="AX67" s="31">
-        <v>49.64</v>
+        <v>49.93</v>
       </c>
       <c r="AY67" s="31">
-        <v>1008.8</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ67" s="31">
         <f t="shared" si="32"/>
-        <v>10.087999999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.25">
@@ -6758,17 +6758,17 @@
         <v>0.52777777777778001</v>
       </c>
       <c r="AW68" s="31">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
       <c r="AX68" s="31">
-        <v>49.74</v>
+        <v>49.93</v>
       </c>
       <c r="AY68" s="31">
-        <v>1008.88</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ68" s="31">
         <f t="shared" si="32"/>
-        <v>10.088799999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.25">
@@ -6785,17 +6785,17 @@
         <v>0.531250000000002</v>
       </c>
       <c r="AW69" s="31">
-        <v>27.73</v>
+        <v>27.86</v>
       </c>
       <c r="AX69" s="31">
-        <v>49.74</v>
+        <v>49.93</v>
       </c>
       <c r="AY69" s="31">
-        <v>1008.93</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ69" s="31">
         <f t="shared" si="32"/>
-        <v>10.0893</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.25">
@@ -6812,17 +6812,17 @@
         <v>0.53472222222222399</v>
       </c>
       <c r="AW70" s="31">
-        <v>27.73</v>
+        <v>27.86</v>
       </c>
       <c r="AX70" s="31">
-        <v>49.76</v>
+        <v>49.93</v>
       </c>
       <c r="AY70" s="31">
-        <v>1009</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ70" s="31">
         <f t="shared" si="32"/>
-        <v>10.09</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.25">
@@ -6839,17 +6839,17 @@
         <v>0.53819444444444697</v>
       </c>
       <c r="AW71" s="31">
-        <v>27.74</v>
+        <v>27.86</v>
       </c>
       <c r="AX71" s="31">
-        <v>49.94</v>
+        <v>49.93</v>
       </c>
       <c r="AY71" s="31">
-        <v>1009.01</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ71" s="31">
         <f t="shared" si="32"/>
-        <v>10.0901</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.25">
@@ -6866,17 +6866,17 @@
         <v>0.54166666666666896</v>
       </c>
       <c r="AW72" s="31">
-        <v>27.73</v>
+        <v>27.86</v>
       </c>
       <c r="AX72" s="31">
         <v>49.93</v>
       </c>
       <c r="AY72" s="31">
-        <v>1009.06</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ72" s="31">
         <f t="shared" si="32"/>
-        <v>10.0906</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.25">
@@ -6893,17 +6893,17 @@
         <v>0.54513888888889095</v>
       </c>
       <c r="AW73" s="31">
-        <v>27.74</v>
+        <v>27.86</v>
       </c>
       <c r="AX73" s="31">
         <v>49.93</v>
       </c>
       <c r="AY73" s="31">
-        <v>1009.1</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ73" s="31">
         <f t="shared" si="32"/>
-        <v>10.091000000000001</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.25">
@@ -6920,17 +6920,17 @@
         <v>0.54861111111111305</v>
       </c>
       <c r="AW74" s="31">
-        <v>27.75</v>
+        <v>27.86</v>
       </c>
       <c r="AX74" s="31">
-        <v>49.96</v>
+        <v>49.93</v>
       </c>
       <c r="AY74" s="31">
-        <v>1009.11</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ74" s="31">
         <f t="shared" si="32"/>
-        <v>10.091100000000001</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.25">
@@ -6947,17 +6947,17 @@
         <v>0.55208333333333603</v>
       </c>
       <c r="AW75" s="31">
-        <v>27.75</v>
+        <v>27.86</v>
       </c>
       <c r="AX75" s="31">
-        <v>50.01</v>
+        <v>49.93</v>
       </c>
       <c r="AY75" s="31">
-        <v>1009.13</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ75" s="31">
         <f t="shared" si="32"/>
-        <v>10.0913</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.25">
@@ -6974,17 +6974,17 @@
         <v>0.55555555555555802</v>
       </c>
       <c r="AW76" s="31">
-        <v>27.75</v>
+        <v>27.86</v>
       </c>
       <c r="AX76" s="31">
-        <v>50.05</v>
+        <v>49.93</v>
       </c>
       <c r="AY76" s="31">
-        <v>1009.17</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ76" s="31">
         <f t="shared" si="32"/>
-        <v>10.091699999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.25">
@@ -7001,17 +7001,17 @@
         <v>0.55902777777778001</v>
       </c>
       <c r="AW77" s="31">
-        <v>27.75</v>
+        <v>27.86</v>
       </c>
       <c r="AX77" s="31">
-        <v>50.01</v>
+        <v>49.93</v>
       </c>
       <c r="AY77" s="31">
-        <v>1009.21</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ77" s="31">
         <f t="shared" ref="AZ77:AZ96" si="55">AY77/100</f>
-        <v>10.0921</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.25">
@@ -7028,17 +7028,17 @@
         <v>0.562500000000003</v>
       </c>
       <c r="AW78" s="31">
-        <v>27.76</v>
+        <v>27.86</v>
       </c>
       <c r="AX78" s="31">
-        <v>50.02</v>
+        <v>49.93</v>
       </c>
       <c r="AY78" s="31">
-        <v>1009.24</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ78" s="31">
         <f t="shared" si="55"/>
-        <v>10.0924</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.25">
@@ -7055,17 +7055,17 @@
         <v>0.56597222222222499</v>
       </c>
       <c r="AW79" s="31">
-        <v>27.77</v>
+        <v>27.86</v>
       </c>
       <c r="AX79" s="31">
-        <v>50.11</v>
+        <v>49.93</v>
       </c>
       <c r="AY79" s="31">
-        <v>1009.24</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ79" s="31">
         <f t="shared" si="55"/>
-        <v>10.0924</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.25">
@@ -7082,17 +7082,17 @@
         <v>0.56944444444444697</v>
       </c>
       <c r="AW80" s="31">
-        <v>27.77</v>
+        <v>27.86</v>
       </c>
       <c r="AX80" s="31">
-        <v>50.15</v>
+        <v>49.93</v>
       </c>
       <c r="AY80" s="31">
-        <v>1009.25</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ80" s="31">
         <f t="shared" si="55"/>
-        <v>10.092499999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.25">
@@ -7109,17 +7109,17 @@
         <v>0.57291666666666896</v>
       </c>
       <c r="AW81" s="31">
-        <v>27.78</v>
+        <v>27.86</v>
       </c>
       <c r="AX81" s="31">
-        <v>50.12</v>
+        <v>49.93</v>
       </c>
       <c r="AY81" s="31">
-        <v>1009.33</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ81" s="31">
         <f t="shared" si="55"/>
-        <v>10.093300000000001</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.25">
@@ -7136,17 +7136,17 @@
         <v>0.57638888888889195</v>
       </c>
       <c r="AW82" s="31">
-        <v>27.78</v>
+        <v>27.86</v>
       </c>
       <c r="AX82" s="31">
-        <v>50.15</v>
+        <v>49.93</v>
       </c>
       <c r="AY82" s="31">
-        <v>1009.32</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ82" s="31">
         <f t="shared" si="55"/>
-        <v>10.093200000000001</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.25">
@@ -7163,17 +7163,17 @@
         <v>0.57986111111111405</v>
       </c>
       <c r="AW83" s="31">
-        <v>27.79</v>
+        <v>27.86</v>
       </c>
       <c r="AX83" s="31">
-        <v>50.04</v>
+        <v>49.93</v>
       </c>
       <c r="AY83" s="31">
-        <v>1009.42</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ83" s="31">
         <f t="shared" si="55"/>
-        <v>10.094199999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.25">
@@ -7190,17 +7190,17 @@
         <v>0.58333333333333603</v>
       </c>
       <c r="AW84" s="31">
-        <v>27.79</v>
+        <v>27.86</v>
       </c>
       <c r="AX84" s="31">
-        <v>50.12</v>
+        <v>49.93</v>
       </c>
       <c r="AY84" s="31">
-        <v>1009.42</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ84" s="31">
         <f t="shared" si="55"/>
-        <v>10.094199999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.25">
@@ -7217,17 +7217,17 @@
         <v>0.58680555555555802</v>
       </c>
       <c r="AW85" s="31">
-        <v>27.79</v>
+        <v>27.86</v>
       </c>
       <c r="AX85" s="31">
-        <v>50.23</v>
+        <v>49.93</v>
       </c>
       <c r="AY85" s="31">
-        <v>1009.47</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ85" s="31">
         <f t="shared" si="55"/>
-        <v>10.0947</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.25">
@@ -7244,17 +7244,17 @@
         <v>0.59027777777778101</v>
       </c>
       <c r="AW86" s="31">
-        <v>27.8</v>
+        <v>27.86</v>
       </c>
       <c r="AX86" s="31">
-        <v>50.18</v>
+        <v>49.93</v>
       </c>
       <c r="AY86" s="31">
-        <v>1009.43</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ86" s="31">
         <f t="shared" si="55"/>
-        <v>10.094299999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.25">
@@ -7271,17 +7271,17 @@
         <v>0.593750000000003</v>
       </c>
       <c r="AW87" s="31">
-        <v>27.81</v>
+        <v>27.86</v>
       </c>
       <c r="AX87" s="31">
-        <v>50.17</v>
+        <v>49.93</v>
       </c>
       <c r="AY87" s="31">
-        <v>1009.46</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ87" s="31">
         <f t="shared" si="55"/>
-        <v>10.0946</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.25">
@@ -7301,14 +7301,14 @@
         <v>27.86</v>
       </c>
       <c r="AX88" s="31">
-        <v>50.23</v>
+        <v>49.93</v>
       </c>
       <c r="AY88" s="31">
-        <v>1009.5</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ88" s="31">
         <f t="shared" si="55"/>
-        <v>10.095000000000001</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.25">
@@ -7325,17 +7325,17 @@
         <v>0.60069444444444697</v>
       </c>
       <c r="AW89" s="31">
-        <v>28.01</v>
+        <v>27.86</v>
       </c>
       <c r="AX89" s="31">
-        <v>50.07</v>
+        <v>49.93</v>
       </c>
       <c r="AY89" s="31">
-        <v>1009.55</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ89" s="31">
         <f t="shared" si="55"/>
-        <v>10.095499999999999</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.25">
@@ -7352,17 +7352,17 @@
         <v>0.60416666666666996</v>
       </c>
       <c r="AW90" s="31">
-        <v>28.14</v>
+        <v>27.86</v>
       </c>
       <c r="AX90" s="31">
-        <v>49.75</v>
+        <v>49.93</v>
       </c>
       <c r="AY90" s="31">
-        <v>1009.51</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ90" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.25">
@@ -7379,17 +7379,17 @@
         <v>0.60763888888889195</v>
       </c>
       <c r="AW91" s="31">
-        <v>28.14</v>
+        <v>27.86</v>
       </c>
       <c r="AX91" s="31">
-        <v>49.75</v>
+        <v>49.93</v>
       </c>
       <c r="AY91" s="31">
-        <v>1009.51</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ91" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.25">
@@ -7406,17 +7406,17 @@
         <v>0.61111111111111405</v>
       </c>
       <c r="AW92" s="31">
-        <v>28.14</v>
+        <v>27.86</v>
       </c>
       <c r="AX92" s="31">
-        <v>49.75</v>
+        <v>49.93</v>
       </c>
       <c r="AY92" s="31">
-        <v>1009.51</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ92" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.25">
@@ -7433,17 +7433,17 @@
         <v>0.61458333333333603</v>
       </c>
       <c r="AW93" s="31">
-        <v>28.14</v>
+        <v>27.86</v>
       </c>
       <c r="AX93" s="31">
-        <v>49.75</v>
+        <v>49.93</v>
       </c>
       <c r="AY93" s="31">
-        <v>1009.51</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ93" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.25">
@@ -7460,17 +7460,17 @@
         <v>0.61805555555555902</v>
       </c>
       <c r="AW94" s="31">
-        <v>28.14</v>
+        <v>27.86</v>
       </c>
       <c r="AX94" s="31">
-        <v>49.75</v>
+        <v>49.93</v>
       </c>
       <c r="AY94" s="31">
-        <v>1009.51</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ94" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.25">
@@ -7487,17 +7487,17 @@
         <v>0.62152777777778101</v>
       </c>
       <c r="AW95" s="31">
-        <v>28.14</v>
+        <v>27.86</v>
       </c>
       <c r="AX95" s="31">
-        <v>49.75</v>
+        <v>49.93</v>
       </c>
       <c r="AY95" s="31">
-        <v>1009.51</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ95" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.25">
@@ -7514,31 +7514,93 @@
         <v>0.625000000000003</v>
       </c>
       <c r="AW96" s="31">
-        <v>28.14</v>
+        <v>27.86</v>
       </c>
       <c r="AX96" s="31">
-        <v>49.75</v>
+        <v>49.93</v>
       </c>
       <c r="AY96" s="31">
-        <v>1009.51</v>
+        <v>1009.02</v>
       </c>
       <c r="AZ96" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.090199999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="BS7:BT7"/>
-    <mergeCell ref="BS8:BT8"/>
-    <mergeCell ref="BU7:BV7"/>
-    <mergeCell ref="BU8:BV8"/>
-    <mergeCell ref="BW7:BX7"/>
-    <mergeCell ref="BW8:BX8"/>
-    <mergeCell ref="BY8:BY10"/>
-    <mergeCell ref="BZ8:CA10"/>
-    <mergeCell ref="BY7:CA7"/>
-    <mergeCell ref="BU9:BU10"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="CJ9:CJ10"/>
+    <mergeCell ref="AY7:AZ8"/>
+    <mergeCell ref="BC7:BD8"/>
+    <mergeCell ref="BD9:BD10"/>
+    <mergeCell ref="BJ8:BK8"/>
+    <mergeCell ref="BK9:BK10"/>
+    <mergeCell ref="BI7:BK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="BE7:BF8"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BV9:BV10"/>
+    <mergeCell ref="AZ9:AZ10"/>
+    <mergeCell ref="BG9:BG10"/>
+    <mergeCell ref="BH9:BH10"/>
+    <mergeCell ref="BI9:BI10"/>
+    <mergeCell ref="BJ9:BJ10"/>
+    <mergeCell ref="BO8:BO10"/>
+    <mergeCell ref="BP8:BP10"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="CQ9:CQ10"/>
+    <mergeCell ref="CR9:CR10"/>
+    <mergeCell ref="CS9:CS10"/>
+    <mergeCell ref="BC9:BC10"/>
+    <mergeCell ref="CK9:CK10"/>
+    <mergeCell ref="CL9:CL10"/>
+    <mergeCell ref="CM9:CM10"/>
+    <mergeCell ref="CN9:CN10"/>
+    <mergeCell ref="CO9:CO10"/>
+    <mergeCell ref="CP9:CP10"/>
+    <mergeCell ref="CE9:CE10"/>
+    <mergeCell ref="CF9:CF10"/>
+    <mergeCell ref="CG9:CG10"/>
+    <mergeCell ref="CH9:CH10"/>
+    <mergeCell ref="CI9:CI10"/>
+    <mergeCell ref="BW9:BW10"/>
+    <mergeCell ref="BX9:BX10"/>
+    <mergeCell ref="CB9:CB10"/>
+    <mergeCell ref="CC9:CC10"/>
+    <mergeCell ref="CD9:CD10"/>
+    <mergeCell ref="BM9:BN10"/>
+    <mergeCell ref="BS9:BS10"/>
+    <mergeCell ref="BT9:BT10"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J7:AM7"/>
+    <mergeCell ref="CB7:CR7"/>
+    <mergeCell ref="CB8:CL8"/>
+    <mergeCell ref="CM8:CP8"/>
+    <mergeCell ref="BG7:BG8"/>
+    <mergeCell ref="BA7:BA8"/>
+    <mergeCell ref="BB7:BB8"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AW9:AW10"/>
+    <mergeCell ref="AX9:AX10"/>
     <mergeCell ref="BQ8:BQ10"/>
     <mergeCell ref="BR8:BR10"/>
     <mergeCell ref="BM7:BN7"/>
@@ -7563,78 +7625,16 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J7:AM7"/>
-    <mergeCell ref="CB7:CR7"/>
-    <mergeCell ref="CB8:CL8"/>
-    <mergeCell ref="CM8:CP8"/>
-    <mergeCell ref="BG7:BG8"/>
-    <mergeCell ref="BA7:BA8"/>
-    <mergeCell ref="BB7:BB8"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AW9:AW10"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="CQ9:CQ10"/>
-    <mergeCell ref="CR9:CR10"/>
-    <mergeCell ref="CS9:CS10"/>
-    <mergeCell ref="BC9:BC10"/>
-    <mergeCell ref="CK9:CK10"/>
-    <mergeCell ref="CL9:CL10"/>
-    <mergeCell ref="CM9:CM10"/>
-    <mergeCell ref="CN9:CN10"/>
-    <mergeCell ref="CO9:CO10"/>
-    <mergeCell ref="CP9:CP10"/>
-    <mergeCell ref="CE9:CE10"/>
-    <mergeCell ref="CF9:CF10"/>
-    <mergeCell ref="CG9:CG10"/>
-    <mergeCell ref="CH9:CH10"/>
-    <mergeCell ref="CI9:CI10"/>
-    <mergeCell ref="BW9:BW10"/>
-    <mergeCell ref="BX9:BX10"/>
-    <mergeCell ref="CB9:CB10"/>
-    <mergeCell ref="CC9:CC10"/>
-    <mergeCell ref="CD9:CD10"/>
-    <mergeCell ref="BM9:BN10"/>
-    <mergeCell ref="BS9:BS10"/>
-    <mergeCell ref="BT9:BT10"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="CJ9:CJ10"/>
-    <mergeCell ref="AY7:AZ8"/>
-    <mergeCell ref="BC7:BD8"/>
-    <mergeCell ref="BD9:BD10"/>
-    <mergeCell ref="BJ8:BK8"/>
-    <mergeCell ref="BK9:BK10"/>
-    <mergeCell ref="BI7:BK7"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="BE7:BF8"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BV9:BV10"/>
-    <mergeCell ref="AZ9:AZ10"/>
-    <mergeCell ref="BG9:BG10"/>
-    <mergeCell ref="BH9:BH10"/>
-    <mergeCell ref="BI9:BI10"/>
-    <mergeCell ref="BJ9:BJ10"/>
-    <mergeCell ref="BO8:BO10"/>
-    <mergeCell ref="BP8:BP10"/>
+    <mergeCell ref="BS7:BT7"/>
+    <mergeCell ref="BS8:BT8"/>
+    <mergeCell ref="BU7:BV7"/>
+    <mergeCell ref="BU8:BV8"/>
+    <mergeCell ref="BW7:BX7"/>
+    <mergeCell ref="BW8:BX8"/>
+    <mergeCell ref="BY8:BY10"/>
+    <mergeCell ref="BZ8:CA10"/>
+    <mergeCell ref="BY7:CA7"/>
+    <mergeCell ref="BU9:BU10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
